--- a/Measurements.xlsx
+++ b/Measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/evgeny_k_technion_ac_il1/Documents/Documents/Lab2 Capacitors/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{4557559D-DC37-4BD2-AFC2-762AD34CFECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43A01575-CFB0-48FC-843A-3573198FC700}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7986B194-2091-49A9-85B7-829FE910D664}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BF278BFA-85CA-4AD2-B762-B86A01D98078}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="7980" activeTab="1" xr2:uid="{BF278BFA-85CA-4AD2-B762-B86A01D98078}"/>
   </bookViews>
   <sheets>
     <sheet name="Disks" sheetId="2" r:id="rId1"/>
@@ -21,15 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -233,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -258,10 +249,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,15 +579,15 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375"/>
+    <col min="8" max="8" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -625,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -657,7 +651,7 @@
         <v>-2.8904062403759989E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -689,7 +683,7 @@
         <v>-1.0094596339292225E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -721,7 +715,7 @@
         <v>9.1248024686915369E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -753,7 +747,7 @@
         <v>1.988426305402256E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -785,7 +779,7 @@
         <v>3.3342979140567907E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -817,7 +811,7 @@
         <v>-1.6341090507129138E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,7 +843,7 @@
         <v>7.7706384398482766E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,7 +875,7 @@
         <v>5.5173709821232104E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -913,7 +907,7 @@
         <v>-1.6766457120554204E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,7 +939,7 @@
         <v>-3.011067552377717E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,7 +971,7 @@
         <v>7.4973118267627176E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,7 +1003,7 @@
         <v>4.277871739817124E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1041,7 +1035,7 @@
         <v>-6.8345619139098604E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1067,7 @@
         <v>6.1520944355045485E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +1102,7 @@
         <v>4.6851146211004613E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,7 +1137,7 @@
         <v>3.9816950988837467E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1175,7 +1169,7 @@
         <v>-2.4715908264185696E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,7 +1201,7 @@
         <v>2.3207925773135574E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1239,7 +1233,7 @@
         <v>5.2019428595291829E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -1270,7 +1264,7 @@
         <v>3.4615384615384617E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1296,7 @@
         <v>4.2769253765857072E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1334,7 +1328,7 @@
         <v>6.0612932493615622E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,7 +1360,7 @@
         <v>7.5358147900840458E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1398,7 +1392,7 @@
         <v>-3.327944399351563E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -1430,7 +1424,7 @@
         <v>-3.2970561549938784E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1462,7 +1456,7 @@
         <v>3.650906099024756E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1494,7 +1488,7 @@
         <v>7.186326353782703E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -1526,7 +1520,7 @@
         <v>7.3936500024360488E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -1558,7 +1552,7 @@
         <v>1.4122838751842308E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1590,7 +1584,7 @@
         <v>9.2623668795203062E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -1622,7 +1616,7 @@
         <v>4.7502734821058115E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1654,7 +1648,7 @@
         <v>5.3914959097265382E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1686,7 +1680,7 @@
         <v>3.2931807975613354E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1718,7 +1712,7 @@
         <v>3.656584278413038E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1750,7 +1744,7 @@
         <v>5.5455077630119053E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -1782,7 +1776,7 @@
         <v>2.2638705814702693E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -1814,7 +1808,7 @@
         <v>-3.6632987255397452E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1846,7 +1840,7 @@
         <v>2.3938991369379995E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -1878,7 +1872,7 @@
         <v>4.9975809772851841E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -1910,7 +1904,7 @@
         <v>5.5573548286492351E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1942,7 +1936,7 @@
         <v>-2.4723005988420893E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
@@ -1974,7 +1968,7 @@
         <v>3.7602110522496672E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
@@ -2006,7 +2000,7 @@
         <v>6.8457232167093457E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
@@ -2038,7 +2032,7 @@
         <v>8.8034508132788389E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
@@ -2073,7 +2067,7 @@
         <v>8.9131091630696799E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -2108,7 +2102,7 @@
         <v>4.2960892320212621E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -2143,7 +2137,7 @@
         <v>2.1098587281849133E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>16</v>
       </c>
@@ -2178,7 +2172,7 @@
         <v>8.3266064213761384E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>17</v>
       </c>
@@ -2210,7 +2204,7 @@
         <v>-3.1274205457681524E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>17</v>
       </c>
@@ -2242,7 +2236,7 @@
         <v>3.4493307307397934E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>17</v>
       </c>
@@ -2274,7 +2268,7 @@
         <v>1.5056583806808674E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>17</v>
       </c>
@@ -2317,16 +2311,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6589C76A-F353-4AF1-9FB2-7C280E2E3DA9}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -2340,368 +2334,368 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="12">
+        <v>75500</v>
+      </c>
+      <c r="D2" s="12">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="12">
+        <v>75200</v>
+      </c>
+      <c r="D3" s="12">
+        <v>9810</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="12">
         <v>75000</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D4" s="12">
+        <v>9740</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12">
+        <v>75800</v>
+      </c>
+      <c r="D5" s="12">
+        <v>9770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12">
+        <v>75800</v>
+      </c>
+      <c r="D6" s="12">
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12">
+        <v>74900</v>
+      </c>
+      <c r="D7" s="12">
+        <v>9760</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12">
+        <v>74800</v>
+      </c>
+      <c r="D8" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="12">
+        <v>75100</v>
+      </c>
+      <c r="D9" s="12">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="12">
+        <v>75100</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12">
+        <v>75000</v>
+      </c>
+      <c r="D11" s="12">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12">
+        <v>74900</v>
+      </c>
+      <c r="D12" s="12">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="12">
+        <v>75500</v>
+      </c>
+      <c r="D13" s="12">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="12">
+        <v>74800</v>
+      </c>
+      <c r="D14" s="12">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="12">
+        <v>37600</v>
+      </c>
+      <c r="D15" s="12">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="10">
-        <v>75000</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="12">
+        <v>37600</v>
+      </c>
+      <c r="D16" s="12">
+        <v>9810</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="12">
+        <v>37600</v>
+      </c>
+      <c r="D17" s="12">
+        <v>9740</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="12">
+        <v>37500</v>
+      </c>
+      <c r="D18" s="12">
+        <v>9770</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="12">
+        <v>37500</v>
+      </c>
+      <c r="D19" s="12">
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="12">
+        <v>37600</v>
+      </c>
+      <c r="D20" s="12">
+        <v>9760</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="12">
+        <v>37500</v>
+      </c>
+      <c r="D21" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="10">
-        <v>75000</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10">
-        <v>75000</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="10">
-        <v>75000</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10">
-        <v>75000</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="10">
-        <v>75000</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="10">
-        <v>75000</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="12">
+        <v>37500</v>
+      </c>
+      <c r="D22" s="12">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="10">
-        <v>75000</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="12">
+        <v>37600</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="10">
-        <v>75000</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="12">
+        <v>37500</v>
+      </c>
+      <c r="D24" s="12">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="10">
-        <v>75000</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="12">
+        <v>37400</v>
+      </c>
+      <c r="D25" s="12">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="10">
-        <v>75000</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="12">
+        <v>37800</v>
+      </c>
+      <c r="D26" s="12">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="10">
-        <v>75000</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="B27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="10">
-        <v>37500</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="10">
-        <v>37500</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="10">
-        <v>37500</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="10">
-        <v>37500</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="10">
-        <v>37500</v>
-      </c>
-      <c r="D19" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="10">
-        <v>37500</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="10">
-        <v>37500</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="10">
-        <v>37500</v>
-      </c>
-      <c r="D22" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="10">
-        <v>37500</v>
-      </c>
-      <c r="D23" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="10">
-        <v>37500</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="10">
-        <v>37500</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="10">
-        <v>37500</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="10">
-        <v>37500</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1000</v>
+      <c r="C27" s="12">
+        <v>37400</v>
+      </c>
+      <c r="D27" s="12">
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -2714,30 +2708,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC2C71C-06BE-4D19-812B-BC6D8FE18F24}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2754,7 +2748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2771,7 +2765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2788,7 +2782,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2805,7 +2799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2822,7 +2816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2839,7 +2833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>

--- a/Measurements.xlsx
+++ b/Measurements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7986B194-2091-49A9-85B7-829FE910D664}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9BF7C14-DBB6-4178-A85C-9CE5C60C827D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="7980" activeTab="1" xr2:uid="{BF278BFA-85CA-4AD2-B762-B86A01D98078}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{BF278BFA-85CA-4AD2-B762-B86A01D98078}"/>
   </bookViews>
   <sheets>
     <sheet name="Disks" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="32">
   <si>
     <t>d1</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>R75</t>
-  </si>
-  <si>
-    <t>R76</t>
   </si>
   <si>
     <t>R37</t>
@@ -2311,7 +2308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6589C76A-F353-4AF1-9FB2-7C280E2E3DA9}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
@@ -2521,7 +2518,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="12">
         <v>37600</v>
@@ -2535,7 +2532,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="12">
         <v>37600</v>
@@ -2549,7 +2546,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="12">
         <v>37600</v>
@@ -2563,7 +2560,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="12">
         <v>37500</v>
@@ -2577,7 +2574,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="12">
         <v>37500</v>
@@ -2591,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="12">
         <v>37600</v>
@@ -2605,7 +2602,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="12">
         <v>37500</v>
@@ -2619,7 +2616,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="12">
         <v>37500</v>
@@ -2633,7 +2630,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="12">
         <v>37600</v>
@@ -2647,7 +2644,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="12">
         <v>37500</v>
@@ -2661,7 +2658,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="12">
         <v>37400</v>
@@ -2675,7 +2672,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="12">
         <v>37800</v>
@@ -2689,7 +2686,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="12">
         <v>37400</v>
@@ -2706,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC2C71C-06BE-4D19-812B-BC6D8FE18F24}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,10 +2716,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>19</v>
@@ -2745,7 +2742,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2762,7 +2759,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2813,7 +2810,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2830,7 +2827,7 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2847,7 +2844,1656 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>180</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>260</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>260</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>260</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>260</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>180</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>180</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>180</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>180</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>260</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>260</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>260</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>260</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>180</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>180</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>180</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>260</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>260</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>260</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>260</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>180</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>180</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>180</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>180</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>260</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>260</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>260</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>260</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>180</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>180</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>180</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>180</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>260</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>260</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>260</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>260</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>180</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>180</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>180</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>180</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>260</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>260</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>260</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>260</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>180</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>180</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>180</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>180</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>260</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>260</v>
+      </c>
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>260</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>260</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>180</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>180</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>180</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>180</v>
+      </c>
+      <c r="D65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>260</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>260</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>260</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>260</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>180</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>180</v>
+      </c>
+      <c r="D71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>180</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>180</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>260</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>260</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>260</v>
+      </c>
+      <c r="D76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>260</v>
+      </c>
+      <c r="D77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>180</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>180</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>180</v>
+      </c>
+      <c r="D80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>180</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>260</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>260</v>
+      </c>
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>260</v>
+      </c>
+      <c r="D84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>260</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>180</v>
+      </c>
+      <c r="D86" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>180</v>
+      </c>
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>180</v>
+      </c>
+      <c r="D88" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>180</v>
+      </c>
+      <c r="D89" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>260</v>
+      </c>
+      <c r="D90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>260</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>260</v>
+      </c>
+      <c r="D92" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>260</v>
+      </c>
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>180</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>180</v>
+      </c>
+      <c r="D95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>180</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>180</v>
+      </c>
+      <c r="D97" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>260</v>
+      </c>
+      <c r="D98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>260</v>
+      </c>
+      <c r="D99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>260</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>260</v>
+      </c>
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>180</v>
+      </c>
+      <c r="D102" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>180</v>
+      </c>
+      <c r="D103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>180</v>
+      </c>
+      <c r="D104" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>180</v>
+      </c>
+      <c r="D105" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
